--- a/medicine/Enfance/Monsieur_Madame/Monsieur_Madame.xlsx
+++ b/medicine/Enfance/Monsieur_Madame/Monsieur_Madame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monsieur Madame (Mr. Men and Little Miss en version originale) est une série de livres pour enfants écrite et dessinée par Roger Hargreaves (1935-1988).
 À l'origine appelée Collection Bonhomme puis Monsieur Bonhomme en France, car constituée exclusivement de protagonistes masculins, cette collection a ensuite changé de nom lors de son élargissement à des personnages féminins. Destiné à un très jeune lectorat, chaque livre met en scène sur quelques pages les aventures humoristiques d'un personnage à chaque fois différent, identifié par une caractéristique particulière (Monsieur Lent, Monsieur Grand, Madame Proprette...) et dessiné dans un style très simple et vivement coloré.
@@ -512,10 +524,12 @@
           <t>Histoire de la licence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Publiée à partir de 1971 en Angleterre sous les titres Mr. Men (et Little Miss, à partir de 1981), cette série connaît un succès international à travers plus de 22 traductions et plus de 185 millions d'exemplaires vendus. La série est aussi un important succès commercial par le nombre de produits dérivés qui en furent issus (dessins animés, livres, figurines, jouets, vêtements…).
-La licence a été acquise en 2011 par l'entreprise japonaise Sanrio, à l'origine entre autres de Hello Kitty[1].
+La licence a été acquise en 2011 par l'entreprise japonaise Sanrio, à l'origine entre autres de Hello Kitty.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection comporte 100 histoires (52 Monsieur, 48 Madame). Le premier né de la série est Monsieur Chatouille, un bonhomme orange avec des bras longs et sinueux qui chatouillent tout le monde. Roger Hargreaves l’aurait dessiné pour expliquer à son fils, Adam, à quoi ressemble une chatouille. Après la mort de Roger Hargreaves en 1988, son fils Adam continua l'œuvre de son père avec six nouveaux personnages.
 En France, la collection des « Monsieur Madame » est éditée depuis mai 1983 par Hachette Jeunesse, et est initialement connue sous le nom de « Collection Bonhomme ».
 En 2010 paraissent deux albums BD des « Monsieur Madame », écrits et dessinés par Jérôme Eho et publié aux éditions Jungle : Monsieur Chatouille et les fantômes et Madame Bavarde et le prince charmant.
 Plus récemment, ce sont onze célébrités qui ont été croquées par l'auteur (Marcel Desailly, Diam's, José Garcia, Marie Gillain, Franck Dubosc, Karine Le Marchand, Hervé Mathoux, Tony Parker, Sonia Rolland, Elie Semoun et Mélissa Theuriau) et dont les livres uniques ont été vendus aux enchères sur eBay au profit de l'association Rêves. La série a été en outre adaptée à la télévision et est diffusée sur la chaine VRAK.TV depuis le 4 janvier 2010.
-Le 30 avril 2019, le groupe Spice Girls s'associe avec la célèbre franchise afin de créer de nombreux produits dérivés tels que des livres, tasses, sacs et dessous de verres[2],[3],[4],[5],[6].
+Le 30 avril 2019, le groupe Spice Girls s'associe avec la célèbre franchise afin de créer de nombreux produits dérivés tels que des livres, tasses, sacs et dessous de verres.
 </t>
         </is>
       </c>
@@ -579,11 +595,48 @@
           <t>Les Aventures des Monsieur/Madame</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Une collection vivante apparue en 1997 avec des nouveautés régulières jusqu’en 2013. Mme Proprette et le Jour de Pluie est une édition spéciale éditée par Skip.
-Les Aventures des Monsieur
-Merci, Monsieur Chatouille (04/1997)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une collection vivante apparue en 1997 avec des nouveautés régulières jusqu’en 2013. Mme Proprette et le Jour de Pluie est une édition spéciale éditée par Skip.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les Aventures des Monsieur/Madame</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Aventures des Monsieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Merci, Monsieur Chatouille (04/1997)
 Heureusement que Monsieur Lent est là (04/1997)
 Monsieur Glouton est invité à dîner (04/1997)
 Une bonne pêche pour Monsieur Méli-Mélo (04/1997)
@@ -612,9 +665,43 @@
 L'étonnant fou rire de Monsieur Étonnant (04/2013)
 Monsieur Farceur a la varicelle (06/2013)
 L'étonnant talent de Monsieur Glouton (06/2013)
-Une surprise pour Monsieur Curieux (06/2013)
-Les Aventures des Madame
-Madame Catastrophe à la fête foraine (04/1997)
+Une surprise pour Monsieur Curieux (06/2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les Aventures des Monsieur/Madame</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Aventures des Madame</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Madame Catastrophe à la fête foraine (04/1997)
 Un dimanche inoubliable pour Madame Petite (04/1997)
 Madame Magie à la rescousse (04/1997)
 Madame Chipie change de couleur (04/1997)
@@ -647,33 +734,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les Monsieur Madame</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(Une grande série avec de nombreuses sous-familles, regroupant toutes les histoires aux multiples protagonistes)
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Une grande série avec de nombreuses sous-familles, regroupant toutes les histoires aux multiples protagonistes)
 (SPORT)
 Les Monsieur Madame s'invitent au stade (06/2012)
 Les Monsieur Madame jouent au football (04/2014)
@@ -707,8 +796,43 @@
 Les Monsieur Madame aiment la planète (05/2020)
 Les Monsieur Madame super-héroïnes (08/2020)
 Les Monsieur Madame et les monstres (10/2023)
-Une journée avec les Monsieur Madame
-(Une collection dont chaque album a pour thème une journée du quotidien des enfants, mais vécue par les Monsieur Madame. Chaque album a un personnage phare qui se détache du groupe, et apparaît en gros plan sur la couverture.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Une journée avec les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Une collection dont chaque album a pour thème une journée du quotidien des enfants, mais vécue par les Monsieur Madame. Chaque album a un personnage phare qui se détache du groupe, et apparaît en gros plan sur la couverture.)
 Un pique nique chez les Monsieur Madame (04/2015)
 Les Monsieur Madame partent en vacances (06/2015)
 Les Monsieur Madame vont à la piscine (07/2015)
@@ -729,8 +853,43 @@
 Les Monsieur Madame construisent une cabane (04/2022)
 Les Monsieur Madame prennent l'avion (07/2022)
 Une journée sous la pluie avec les Monsieur Madame (11/2022)
-Les Monsieur Madame à travers les âges
-(Ici la série prend une tournure plus éducative, car nos amis voyagent à travers le temps... et l'espace !!)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame à travers les âges</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Ici la série prend une tournure plus éducative, car nos amis voyagent à travers le temps... et l'espace !!)
 Les Monsieur Madame et les dinosaures (03/2016)
 Les Monsieur Madame en Égypte (06/2016)
 Les Monsieur Madame et les chevaliers (08/2016)
@@ -742,8 +901,43 @@
 Les Monsieur Madame à l'âge de glace (09/2018)
 Les Monsieur Madame vont sur la lune (10/2018)
 Les Monsieur Madame et les robots (08/2020)
-Les Monsieur Madame célèbrent la famille !
-(Nos petits livres prennent ici la forme d'un cadeau à offrir à une personne chère à son cœur, sous la forme d'extraits des premiers livres et de messages à écrire à l'intérieur.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame célèbrent la famille !</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Nos petits livres prennent ici la forme d'un cadeau à offrir à une personne chère à son cœur, sous la forme d'extraits des premiers livres et de messages à écrire à l'intérieur.)
 Les Monsieur Madame - Ma Maman (05/2017)
 Les Monsieur Madame - Mon Papa (05/2017)
 Les Monsieur Madame - Mon frère (01/2018)
@@ -753,8 +947,43 @@
 Les Monsieur Madame - Tu es exceptionnel (01/2020)
 Les Monsieur Madame -  Ma Mamie (02/2023)
 Les Monsieur Madame -  Mon Papi (02/2023)
-Le Tour du Monde des Monsieur Madame
-(Les Monsieur Madame partent en voyage !)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Le Tour du Monde des Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Les Monsieur Madame partent en voyage !)
 Les Monsieur Madame à Paris (01/2019)
 Les Monsieur Madame aux États-Unis (05/2019)
 Les Monsieur Madame en Écosse (08/2019)
@@ -767,16 +996,86 @@
 Les Monsieur Madame en Australie (07/2021)
 Les Monsieur Madame au Canada (11/2021)
 Les Monsieur Madame à Londres (06/2023)
-Les métiers des Monsieur Madame
-(Les Monsieur Madame se serrent les coudes dans le monde du travail.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les métiers des Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Les Monsieur Madame se serrent les coudes dans le monde du travail.)
 La caserne de pompiers des Monsieur Madame  (02/2020)
 L'hôpital des Monsieur Madame (10/2020)
 L'hôtel de police des Monsieur Madame (03/2021)
 Le cabinet vétérinaire des Monsieur Madame (08/2021)
 Le restaurant des Monsieur Madame (09/2022)
 Le chantier des Monsieur Madame (08/2023)
-Bien grandir avec les Monsieur Madame
-(Série ayant pour but principal de mettre en confiance nos chers bambins.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bien grandir avec les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Série ayant pour but principal de mettre en confiance nos chers bambins.)
 Les Monsieur Madame sont capables de tout (01/2022)
 Les Monsieur Madame sont de grands curieux (02/2022)
 Les Monsieur Madame se régalent (05/2022)
@@ -786,44 +1085,116 @@
 Les Monsieur Madame : Tu es inquiet  (04/2023)
 Les Monsieur Madame : Tu es triste  (09/2023)
 Les Monsieur Madame : Vive le partage ! (03/2024)
-Balade en France
-(Cette fois-ci ils explorent notre beau pays !)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Balade en France</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Cette fois-ci ils explorent notre beau pays !)
 Les Monsieur Madame visitent la France (01/2024)
 Les Monsieur Madame visitent le Nord (02/2024)
 Les Monsieur Madame visitent la Bretagne (04/2024)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Monsieur/Madame Paillettes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Encore de nouvelles aventures, mais cette fois-ci avec de jolies paillettes sur la couverture, et souvent la transposition des contes classiques dans l’univers des Monsieur Madame.
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encore de nouvelles aventures, mais cette fois-ci avec de jolies paillettes sur la couverture, et souvent la transposition des contes classiques dans l’univers des Monsieur Madame.
 (Jack et le haricot magique, Le bonhomme de pain d’épice, Aladin, Cendrillon, La princesse et la grenouille, La princesse et le petit pois, Boucle d’Or et les trois ours, Les trois petits cochons).
-Monsieur Paillettes
-Monsieur Bruit et le géant (09/2005)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Monsieur/Madame Paillettes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Monsieur Paillettes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Monsieur Bruit et le géant (09/2005)
 Monsieur Chatouille et le Dragon (09/2005)
 Monsieur Heureux et le Magicien (09/2005)
 Monsieur Peureux et les Pirates (08/2006)
@@ -833,9 +1204,43 @@
 Monsieur Costaud et l'Ogre (08/2008)
 Monsieur Curieux et le Haricot magique (08/2009)
 Monsieur Glouton et le Bonhomme de pain d'épice (04/2013)
-Monsieur Rigolo et la lampe magique (08/2014)
-Madame Paillettes
-Madame Bonheur et la sorcière (09/2005)
+Monsieur Rigolo et la lampe magique (08/2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Monsieur/Madame Paillettes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Madame Paillettes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Madame Bonheur et la sorcière (09/2005)
 Madame Canaille et la Bonne Fée (09/2005)
 Madame Chipie et la sirène (09/2005)
 Madame Beauté et la Princesse (08/2006)
@@ -846,39 +1251,75 @@
 Madame Timide et la Bonne Fée (08/2009)
 Madame Bavarde et la grenouille (08/2014)
 Madame Bonheur et les 3 ours (08/2015)
-Madame Princesse et le petit pois (08/2015)
-Monsieur Madame Paillettes
-Les Monsieur Madame et le Grand Méchant Loup (06/2013)
+Madame Princesse et le petit pois (08/2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Monsieur/Madame Paillettes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Monsieur Madame Paillettes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les Monsieur Madame et le Grand Méchant Loup (06/2013)
 Les Monsieur Madame au Pays Magique (06/2018)
 Les Monsieur Madame au Pays des petites bêtes (08/2019)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Monsieur Madame pour adultes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Madame Boulot et les joies de la maternité (09/2018)
 Madame Timide drague en ligne (09/2018)
@@ -893,31 +1334,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Histoire magique Monsieur/Madame</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Collection parue en presse de 1991 à 1995 :
 Série 1 (1991, noir et blanc)
@@ -971,31 +1414,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monsieur_Madame</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Adaptation audiovisuelle</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>La série Monsieur Madame a également été adaptée en :
 1974 avec Mr. Men une série de 28 épisodes de 7 minutes de Terry Ward.
